--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,90 +46,99 @@
     <t>die</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -154,127 +163,130 @@
     <t>special</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increase</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -751,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -801,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -851,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.9393939393939394</v>
@@ -901,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -951,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.863013698630137</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -1001,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8275862068965517</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>0.9166666666666666</v>
@@ -1051,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -1069,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.9014084507042254</v>
+        <v>0.8984375</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>0.8936170212765957</v>
@@ -1251,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7419354838709677</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1301,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7333333333333333</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>0.8875</v>
@@ -1351,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C16">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.8867924528301887</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6949152542372882</v>
+        <v>0.7015503875968992</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.8828125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6772486772486772</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C18">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <v>0.8658536585365854</v>
@@ -1501,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65625</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6174496644295302</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D21">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.8333333333333334</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5945945945945946</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>0.8214285714285714</v>
@@ -1701,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5861111111111111</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.8095238095238095</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5641025641025641</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5066666666666667</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4181818181818182</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3928571428571428</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.7647058823529411</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,37 +2013,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3766233766233766</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>29</v>
       </c>
-      <c r="D29">
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29">
+        <v>0.725</v>
+      </c>
+      <c r="L29">
         <v>29</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>48</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29">
-        <v>0.7617647058823529</v>
-      </c>
-      <c r="L29">
-        <v>259</v>
-      </c>
       <c r="M29">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2063,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2113,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3015873015873016</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2163,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1662198391420912</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,357 +2181,429 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.7428571428571429</v>
+        <v>0.7</v>
       </c>
       <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C33">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>308</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>270</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L34">
+        <v>64</v>
+      </c>
+      <c r="M34">
+        <v>64</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.008373590982286634</v>
+      </c>
+      <c r="C35">
         <v>26</v>
       </c>
-      <c r="M32">
-        <v>26</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3079</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.725</v>
-      </c>
-      <c r="L33">
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L37">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>29</v>
       </c>
-      <c r="M33">
-        <v>29</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.7238493723849372</v>
-      </c>
-      <c r="L34">
-        <v>173</v>
-      </c>
-      <c r="M34">
-        <v>173</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.7210884353741497</v>
-      </c>
-      <c r="L35">
-        <v>212</v>
-      </c>
-      <c r="M35">
-        <v>213</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L39">
+        <v>46</v>
+      </c>
+      <c r="M39">
+        <v>46</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L41">
+        <v>28</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.7127659574468085</v>
-      </c>
-      <c r="L36">
-        <v>67</v>
-      </c>
-      <c r="M36">
-        <v>67</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="L37">
-        <v>63</v>
-      </c>
-      <c r="M37">
-        <v>63</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L40">
-        <v>45</v>
-      </c>
-      <c r="M40">
-        <v>45</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="K43">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L44">
+        <v>22</v>
+      </c>
+      <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L41">
-        <v>45</v>
-      </c>
-      <c r="M41">
-        <v>45</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L42">
-        <v>28</v>
-      </c>
-      <c r="M42">
-        <v>28</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="L43">
-        <v>23</v>
-      </c>
-      <c r="M43">
-        <v>23</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44">
-        <v>0.5205479452054794</v>
-      </c>
-      <c r="L44">
-        <v>38</v>
-      </c>
-      <c r="M44">
-        <v>38</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K45">
-        <v>0.484375</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2531,12 +2615,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K46">
         <v>0.3728813559322034</v>
@@ -2560,18 +2644,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="10:17">
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K47">
-        <v>0.360655737704918</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2583,15 +2667,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K48">
-        <v>0.3508771929824561</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L48">
         <v>20</v>
@@ -2609,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K49">
-        <v>0.2948717948717949</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2635,33 +2719,59 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>0.1926605504587156</v>
+        <v>0.03419516263552961</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>88</v>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51">
+        <v>0.00900562851782364</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>0.75</v>
+      </c>
+      <c r="O51">
+        <v>0.25</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2641</v>
       </c>
     </row>
   </sheetData>
